--- a/biology/Botanique/Variété_patrimoniale/Variété_patrimoniale.xlsx
+++ b/biology/Botanique/Variété_patrimoniale/Variété_patrimoniale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vari%C3%A9t%C3%A9_patrimoniale</t>
+          <t>Variété_patrimoniale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une variété patrimoniale ou ancestrale, désigne une plante ou une semence d'un vieux cultivar préservé essentiellement par des amateurs, semenciers et maraîchers désireux de le sauvegarder.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vari%C3%A9t%C3%A9_patrimoniale</t>
+          <t>Variété_patrimoniale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Critères</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une variété est dite patrimoniale lorsqu'elle a été mise sur le marché il y a plus de 50 ans ou avant 1940 « Pour éviter les dérapages, deux experts mondiaux des tomates ancestrales, Craig LeHoullier et Carolyn Male, ont établi la règle suivante: pour qu'une variété soit reconnue comme patrimoniale, elle doit avoir été introduite sur le marché il y a plus de 50 ans, ou avant 1940. »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une variété est dite patrimoniale lorsqu'elle a été mise sur le marché il y a plus de 50 ans ou avant 1940 « Pour éviter les dérapages, deux experts mondiaux des tomates ancestrales, Craig LeHoullier et Carolyn Male, ont établi la règle suivante: pour qu'une variété soit reconnue comme patrimoniale, elle doit avoir été introduite sur le marché il y a plus de 50 ans, ou avant 1940. ».
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vari%C3%A9t%C3%A9_patrimoniale</t>
+          <t>Variété_patrimoniale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Canada
-Certaines variétés sont considérées comme étant patrimoniales au Québec :
-Le melon d'Oka[2]
-Suisse</t>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Certaines variétés sont considérées comme étant patrimoniales au Québec :
+Le melon d'Oka</t>
         </is>
       </c>
     </row>
